--- a/biology/Médecine/Myogenèse/Myogenèse.xlsx
+++ b/biology/Médecine/Myogenèse/Myogenèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myogen%C3%A8se</t>
+          <t>Myogenèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myogenèse (du grec myo « muscle » et genesis « naissance ») est un phénomène biologique qui conduit à la formation des tissus musculaires. Elle a d'abord lieu lors du développement de l'embryon, puis lors de certains phénomènes de réparation (après un dommage musculaire par exemple).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myogen%C3%A8se</t>
+          <t>Myogenèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanismes biologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La myogenèse fait intervenir 
 des facteurs de croissance : FGF (Fibroblast Growth Factor) et TGF (Transforming Growth Factor),
@@ -524,9 +538,44 @@
 une fois les myoblastes alignés, des pores de fusion se forment dans leur membrane plasmique puis s'agrandissent, conduisant à la fusion de ces cellules pour former un syncitium plurinucléé appelé myotube. La fusion est induite par la myogénine (MRF) ;
 puis, lors de la différenciation tardive et sous l'influence de MRF4, les myotubes se différencient et se réorganisent en fibres musculaires (organisation des myofibrilles, réorganisation du cytosquelette, relocalisation des noyaux en périphérie).
 Le tissu musculaire ainsi formé comporte également des myoblastes appelés cellules satellite. Ces cellules localisées à la périphérie des fibres musculaires interviennent lors de la réparation des tissus musculaires. 
-Rôle des macrophages
-Les macrophages jouent un rôle important lors des processus de régénération (in vivo) et montrent in vitro un impact sur la croissance des cellules myogéniques au travers d'effets mitogéniques et antiapoptotiques. Mais ces effets sont « versatiles » et peuvent se manifester de manière opposée selon leur mode d'action ou état d'activation. 
-En temps normal, dans les muscles squelettiques blessés, ils  présentent des profils inflammatoires, exercent une phagocytose et une stimulation de la myogenèse et de la vitesse de croissance des fibres musculaires[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Myogenèse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myogen%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mécanismes biologiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rôle des macrophages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les macrophages jouent un rôle important lors des processus de régénération (in vivo) et montrent in vitro un impact sur la croissance des cellules myogéniques au travers d'effets mitogéniques et antiapoptotiques. Mais ces effets sont « versatiles » et peuvent se manifester de manière opposée selon leur mode d'action ou état d'activation. 
+En temps normal, dans les muscles squelettiques blessés, ils  présentent des profils inflammatoires, exercent une phagocytose et une stimulation de la myogenèse et de la vitesse de croissance des fibres musculaires.
 </t>
         </is>
       </c>
